--- a/biology/Botanique/Maclura/Maclura.xlsx
+++ b/biology/Botanique/Maclura/Maclura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maclura est un genre de plantes à fleurs de la famille des Moraceae. C'est le genre de l'Oranger des Osages.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cardiogyne Bureau
 Chlorophora Gaudich.
@@ -547,7 +561,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maclura africana (Afrique)
 Maclura cochinchinensis (sect. Cudrania ser. Connatae - Syn.: Cudrania cochinchinensis, Cudrania javanensis, Vanieria cochinchinensis) (Chine)
@@ -584,9 +600,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020)[2] et The Plant List            (10 septembre 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020) et The Plant List            (10 septembre 2020) :
 Maclura africana (Bureau) Corner
 Maclura amboinensis Blume
 Maclura andamanica (King ex J.D. Hooker) C.C. Berg
@@ -599,7 +617,7 @@
 Maclura thorelii (Gagnep.) Corner
 Maclura tinctoria (L.) D.Don ex Steud.
 Maclura tricuspidata Carrière
-Selon Tropicos                                           (10 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Maclura affinis Miq.
 Maclura africana (Bureau) Corner
 Maclura amboinensis Blume
